--- a/biology/Zoologie/Balanerpeton_woodi/Balanerpeton_woodi.xlsx
+++ b/biology/Zoologie/Balanerpeton_woodi/Balanerpeton_woodi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balanerpeton woodi
 Balanerpeton est un  genre fossile de temnospondyles ayant vécu il y a un peu plus de 330 millions d'années, au Brigantian (en) du Mississippien ou Carbonifère inférieur, dont la seule espèce référencée est Balanerpeton woodi.
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Balanerpeton et l'espèce Balanerpeton woodi ont été créés en 1994 par Andrew Robert Milner (d) et Sandra E. K. Sequeira (d)[1],[2],[3],[4].
-Découverte
-Il fut découvert dans le gisement écossais d'East Kirkton (d). Une trentaine d'individus fossilisés furent retrouvés lovés sur eux-mêmes à l'intérieur d'un tronc creux fossile de lycophyte. Les paléontologues supposèrent que les animaux avaient été emportés par une coulée de boue et qu'il s'étaient retrouvés dans cette souche d'arbre en essayant d'en réchapper. Ils furent cependant engloutis à l'intérieur.
-Cladogramme
-Ci-dessous, un cladogramme des Temnospondyli montrant les relations des Edopoidea de Christian A. Sidor (en) et al. (2006)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Balanerpeton et l'espèce Balanerpeton woodi ont été créés en 1994 par Andrew Robert Milner (d) et Sandra E. K. Sequeira (d).
 </t>
         </is>
       </c>
@@ -544,10 +554,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Découverte</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut découvert dans le gisement écossais d'East Kirkton (d). Une trentaine d'individus fossilisés furent retrouvés lovés sur eux-mêmes à l'intérieur d'un tronc creux fossile de lycophyte. Les paléontologues supposèrent que les animaux avaient été emportés par une coulée de boue et qu'il s'étaient retrouvés dans cette souche d'arbre en essayant d'en réchapper. Ils furent cependant engloutis à l'intérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Balanerpeton_woodi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balanerpeton_woodi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, un cladogramme des Temnospondyli montrant les relations des Edopoidea de Christian A. Sidor (en) et al. (2006) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Balanerpeton_woodi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balanerpeton_woodi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description et paléoécologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Balanerpeton woodi mesurait une vingtaine de centimètres. Les fenêtres interptérygoïdiennes indiquent son appartenance aux temnospondyles. Les scientifiques pensent que Balanerpeton est l'un des plus anciens tétrapodes à avoir vécu sur la terre ferme.
 À l'arrière de la tête, l'ouverture tympanique est large, permettant une bonne audition en milieu terrestre. Balanerpeton est également caractérisé par un « stapes » fin, signe d'une vie terrestre. Le stapes doit en effet être fin et le tympan bien plus large que la fenêtre ovale pour augmenter la force des ondes sonores.
